--- a/excel_auto/temp_2.xlsx
+++ b/excel_auto/temp_2.xlsx
@@ -7,19 +7,19 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="超级英雄" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="灾难" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="喜剧" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="动作" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="爱情" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="冒险" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="奇幻" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="犯罪" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="剧情" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="科幻" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="动画" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="歌舞" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="惊悚" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="歌舞" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="爱情" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="科幻" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="动画" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="犯罪" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="灾难" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="剧情" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="奇幻" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="喜剧" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="超级英雄" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="冒险" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="惊悚" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="动作" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,11 +484,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>《复仇者联盟4：终局之战》</t>
+          <t>《狮子王》</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -496,113 +496,51 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>动作/科幻/超级英雄</t>
+          <t>动画/歌舞/冒险</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>27.99</v>
+        <v>16.62</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>复仇者联盟集结对抗灭霸，逆转“烁灭”事件，终结漫威宇宙第三阶段</t>
+          <t>CG重制经典动画，辛巴历经流亡与成长夺回王位</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>动作</t>
+          <t>动画</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>《复仇者联盟3：无限战争》</t>
+          <t>《冰雪奇缘2》</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>动作/科幻/超级英雄</t>
+          <t>动画/歌舞/奇幻</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>20.52</v>
+        <v>14.54</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>灭霸集齐无限宝石消灭宇宙半数生命，复仇者联盟首次战败</t>
+          <t>艾莎探寻魔法起源，与安娜拯救魔法森林</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>动作</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>8</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>《蜘蛛侠：英雄无归》</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>动作/科幻/超级英雄</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>19.53</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>蜘蛛侠开启多元宇宙，三代蜘蛛侠同框对抗经典反派</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>动作</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>12</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>《复仇者联盟》</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2012</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>动作/科幻/超级英雄</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>15.21</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>钢铁侠、雷神等初代英雄首次集结对抗洛基</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>动作</t>
+          <t>动画</t>
         </is>
       </c>
     </row>
@@ -612,310 +550,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>排名</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>电影名称</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>拍摄时间</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>类型标签</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>全球票房(亿美元)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>简介</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>类型标签-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>《阿凡达》</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2009</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>科幻/冒险</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>29.24</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>人类在潘多拉星球开采资源，士兵杰克·萨利转为纳美族盟友，领导反抗人类侵略</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>科幻</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>《复仇者联盟4：终局之战》</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>动作/科幻/超级英雄</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>27.99</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>复仇者联盟集结对抗灭霸，逆转“烁灭”事件，终结漫威宇宙第三阶段</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>动作</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>《阿凡达：水之道》</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2022</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>科幻/冒险</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>杰克与妮特丽带领家人迁居潘多拉沿海部落，抵御人类新威胁</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>科幻</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>6</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>《星球大战7：原力觉醒》</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>科幻/冒险</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>20.71</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>新一代英雄蕾与芬恩携手抵抗军，寻找失踪的卢克·天行者</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>科幻</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>《复仇者联盟3：无限战争》</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>动作/科幻/超级英雄</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>20.52</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>灭霸集齐无限宝石消灭宇宙半数生命，复仇者联盟首次战败</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>动作</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>8</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>《蜘蛛侠：英雄无归》</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>动作/科幻/超级英雄</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>19.53</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>蜘蛛侠开启多元宇宙，三代蜘蛛侠同框对抗经典反派</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>动作</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>10</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>《侏罗纪世界》</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>科幻/冒险</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>16.72</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>恐龙主题公园因基因杂交恐龙暴走陷入灾难</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>科幻</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>12</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>《复仇者联盟》</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>2012</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>动作/科幻/超级英雄</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>15.21</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>钢铁侠、雷神等初代英雄首次集结对抗洛基</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>动作</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -968,125 +602,125 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>《哪吒之魔童闹海》</t>
+          <t>《复仇者联盟4：终局之战》</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2025</v>
+        <v>2019</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>动画/奇幻/动作</t>
+          <t>动作/科幻/超级英雄</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>21.4</v>
+        <v>27.99</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>哪吒对抗天命与龙族，打破“魔童”诅咒的成长史诗，首部跻身全球前五的亚洲电影</t>
+          <t>复仇者联盟集结对抗灭霸，逆转“烁灭”事件，终结漫威宇宙第三阶段</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>动画</t>
+          <t>动作</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>《头脑特工队2》</t>
+          <t>《复仇者联盟3：无限战争》</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>动画/喜剧/冒险</t>
+          <t>动作/科幻/超级英雄</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>16.99</v>
+        <v>20.52</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>莱莉进入青春期，情绪小人面临新挑战，创动画电影票房纪录</t>
+          <t>灭霸集齐无限宝石消灭宇宙半数生命，复仇者联盟首次战败</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>动画</t>
+          <t>动作</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>《狮子王》</t>
+          <t>《蜘蛛侠：英雄无归》</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>动画/歌舞/冒险</t>
+          <t>动作/科幻/超级英雄</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>16.62</v>
+        <v>19.53</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CG重制经典动画，辛巴历经流亡与成长夺回王位</t>
+          <t>蜘蛛侠开启多元宇宙，三代蜘蛛侠同框对抗经典反派</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>动画</t>
+          <t>动作</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>《冰雪奇缘2》</t>
+          <t>《复仇者联盟》</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>动画/歌舞/奇幻</t>
+          <t>动作/科幻/超级英雄</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>14.54</v>
+        <v>15.21</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>艾莎探寻魔法起源，与安娜拯救魔法森林</t>
+          <t>钢铁侠、雷神等初代英雄首次集结对抗洛基</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>动画</t>
+          <t>动作</t>
         </is>
       </c>
     </row>
@@ -1095,13 +729,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1148,61 +782,185 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>《狮子王》</t>
+          <t>《阿凡达》</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>动画/歌舞/冒险</t>
+          <t>科幻/冒险</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>16.62</v>
+        <v>29.24</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CG重制经典动画，辛巴历经流亡与成长夺回王位</t>
+          <t>人类在潘多拉星球开采资源，士兵杰克·萨利转为纳美族盟友，领导反抗人类侵略</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>动画</t>
+          <t>科幻</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>《冰雪奇缘2》</t>
+          <t>《阿凡达：水之道》</t>
         </is>
       </c>
       <c r="C3" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>科幻/冒险</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>杰克与妮特丽带领家人迁居潘多拉沿海部落，抵御人类新威胁</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>科幻</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>《星球大战7：原力觉醒》</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>科幻/冒险</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>20.71</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>新一代英雄蕾与芬恩携手抵抗军，寻找失踪的卢克·天行者</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>科幻</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>《头脑特工队2》</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>动画/喜剧/冒险</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>16.99</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>莱莉进入青春期，情绪小人面临新挑战，创动画电影票房纪录</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>动画</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>《侏罗纪世界》</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>科幻/冒险</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>16.72</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>恐龙主题公园因基因杂交恐龙暴走陷入灾难</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>科幻</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>《狮子王》</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>2019</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>动画/歌舞/奇幻</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>14.54</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>艾莎探寻魔法起源，与安娜拯救魔法森林</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>动画/歌舞/冒险</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>16.62</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>CG重制经典动画，辛巴历经流亡与成长夺回王位</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>动画</t>
         </is>
@@ -1213,7 +971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1292,6 +1050,248 @@
       <c r="G2" t="inlineStr">
         <is>
           <t>剧情</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>电影名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>拍摄时间</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>类型标签</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>全球票房(亿美元)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>简介</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>类型标签-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>《复仇者联盟4：终局之战》</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>动作/科幻/超级英雄</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>27.99</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>复仇者联盟集结对抗灭霸，逆转“烁灭”事件，终结漫威宇宙第三阶段</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>动作</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>《哪吒之魔童闹海》</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>动画/奇幻/动作</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>哪吒对抗天命与龙族，打破“魔童”诅咒的成长史诗，首部跻身全球前五的亚洲电影</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>动画</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>《复仇者联盟3：无限战争》</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>动作/科幻/超级英雄</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>20.52</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>灭霸集齐无限宝石消灭宇宙半数生命，复仇者联盟首次战败</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>动作</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>《蜘蛛侠：英雄无归》</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>动作/科幻/超级英雄</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>蜘蛛侠开启多元宇宙，三代蜘蛛侠同框对抗经典反派</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>动作</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>《复仇者联盟》</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>动作/科幻/超级英雄</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>钢铁侠、雷神等初代英雄首次集结对抗洛基</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>动作</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>13</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>《速度与激情7》</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>动作/犯罪</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>唐老大团队为营救黑客与恐怖分子对决，布莱恩（保罗·沃克遗作）退隐</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>动作</t>
         </is>
       </c>
     </row>
@@ -1393,7 +1393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1440,32 +1440,249 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>《头脑特工队2》</t>
+          <t>《阿凡达》</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2024</v>
+        <v>2009</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>动画/喜剧/冒险</t>
+          <t>科幻/冒险</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>16.99</v>
+        <v>29.24</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>莱莉进入青春期，情绪小人面临新挑战，创动画电影票房纪录</t>
+          <t>人类在潘多拉星球开采资源，士兵杰克·萨利转为纳美族盟友，领导反抗人类侵略</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>动画</t>
+          <t>科幻</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>《复仇者联盟4：终局之战》</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>动作/科幻/超级英雄</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>27.99</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>复仇者联盟集结对抗灭霸，逆转“烁灭”事件，终结漫威宇宙第三阶段</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>动作</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>《阿凡达：水之道》</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>科幻/冒险</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>杰克与妮特丽带领家人迁居潘多拉沿海部落，抵御人类新威胁</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>科幻</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>《星球大战7：原力觉醒》</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>科幻/冒险</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>20.71</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>新一代英雄蕾与芬恩携手抵抗军，寻找失踪的卢克·天行者</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>科幻</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>《复仇者联盟3：无限战争》</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>动作/科幻/超级英雄</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>20.52</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>灭霸集齐无限宝石消灭宇宙半数生命，复仇者联盟首次战败</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>动作</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>《蜘蛛侠：英雄无归》</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>动作/科幻/超级英雄</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>蜘蛛侠开启多元宇宙，三代蜘蛛侠同框对抗经典反派</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>动作</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>《侏罗纪世界》</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>科幻/冒险</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>16.72</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>恐龙主题公园因基因杂交恐龙暴走陷入灾难</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>科幻</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>《复仇者联盟》</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>动作/科幻/超级英雄</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>钢铁侠、雷神等初代英雄首次集结对抗洛基</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>动作</t>
         </is>
       </c>
     </row>
@@ -1480,7 +1697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1527,58 +1744,58 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>《复仇者联盟4：终局之战》</t>
+          <t>《哪吒之魔童闹海》</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2019</v>
+        <v>2025</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>动作/科幻/超级英雄</t>
+          <t>动画/奇幻/动作</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>27.99</v>
+        <v>21.4</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>复仇者联盟集结对抗灭霸，逆转“烁灭”事件，终结漫威宇宙第三阶段</t>
+          <t>哪吒对抗天命与龙族，打破“魔童”诅咒的成长史诗，首部跻身全球前五的亚洲电影</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>动作</t>
+          <t>动画</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>《哪吒之魔童闹海》</t>
+          <t>《头脑特工队2》</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>动画/奇幻/动作</t>
+          <t>动画/喜剧/冒险</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>21.4</v>
+        <v>16.99</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>哪吒对抗天命与龙族，打破“魔童”诅咒的成长史诗，首部跻身全球前五的亚洲电影</t>
+          <t>莱莉进入青春期，情绪小人面临新挑战，创动画电影票房纪录</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1589,125 +1806,63 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>《复仇者联盟3：无限战争》</t>
+          <t>《狮子王》</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>动作/科幻/超级英雄</t>
+          <t>动画/歌舞/冒险</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>20.52</v>
+        <v>16.62</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>灭霸集齐无限宝石消灭宇宙半数生命，复仇者联盟首次战败</t>
+          <t>CG重制经典动画，辛巴历经流亡与成长夺回王位</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>动作</t>
+          <t>动画</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>《蜘蛛侠：英雄无归》</t>
+          <t>《冰雪奇缘2》</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>动作/科幻/超级英雄</t>
+          <t>动画/歌舞/奇幻</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>19.53</v>
+        <v>14.54</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>蜘蛛侠开启多元宇宙，三代蜘蛛侠同框对抗经典反派</t>
+          <t>艾莎探寻魔法起源，与安娜拯救魔法森林</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>动作</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>12</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>《复仇者联盟》</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2012</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>动作/科幻/超级英雄</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>15.21</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>钢铁侠、雷神等初代英雄首次集结对抗洛基</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>动作</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>13</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>《速度与激情7》</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>动作/犯罪</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>15.15</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>唐老大团队为营救黑客与恐怖分子对决，布莱恩（保罗·沃克遗作）退隐</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>动作</t>
+          <t>动画</t>
         </is>
       </c>
     </row>
@@ -1717,6 +1872,124 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>电影名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>拍摄时间</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>类型标签</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>全球票房(亿美元)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>简介</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>类型标签-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>《速度与激情7》</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>动作/犯罪</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>唐老大团队为营救黑客与恐怖分子对决，布莱恩（保罗·沃克遗作）退隐</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>动作</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>《小丑》</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>剧情/犯罪/惊悚</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>亚瑟·弗莱克在哥谭市压迫下沦为反派“小丑”</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>剧情</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1803,13 +2076,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1856,305 +2129,32 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>《阿凡达》</t>
+          <t>《小丑》</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>科幻/冒险</t>
+          <t>剧情/犯罪/惊悚</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29.24</v>
+        <v>14.47</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>人类在潘多拉星球开采资源，士兵杰克·萨利转为纳美族盟友，领导反抗人类侵略</t>
+          <t>亚瑟·弗莱克在哥谭市压迫下沦为反派“小丑”</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>科幻</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>《阿凡达：水之道》</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2022</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>科幻/冒险</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>杰克与妮特丽带领家人迁居潘多拉沿海部落，抵御人类新威胁</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>科幻</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>《星球大战7：原力觉醒》</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>科幻/冒险</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>20.71</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>新一代英雄蕾与芬恩携手抵抗军，寻找失踪的卢克·天行者</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>科幻</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>9</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>《头脑特工队2》</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2024</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>动画/喜剧/冒险</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>16.99</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>莱莉进入青春期，情绪小人面临新挑战，创动画电影票房纪录</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>动画</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>10</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>《侏罗纪世界》</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>科幻/冒险</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>16.72</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>恐龙主题公园因基因杂交恐龙暴走陷入灾难</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>科幻</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>11</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>《狮子王》</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>动画/歌舞/冒险</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>16.62</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>CG重制经典动画，辛巴历经流亡与成长夺回王位</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>动画</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>排名</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>电影名称</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>拍摄时间</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>类型标签</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>全球票房(亿美元)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>简介</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>类型标签-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>《哪吒之魔童闹海》</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2025</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>动画/奇幻/动作</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>哪吒对抗天命与龙族，打破“魔童”诅咒的成长史诗，首部跻身全球前五的亚洲电影</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>动画</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>14</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>《冰雪奇缘2》</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>动画/歌舞/奇幻</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>14.54</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>艾莎探寻魔法起源，与安娜拯救魔法森林</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>动画</t>
+          <t>剧情</t>
         </is>
       </c>
     </row>
@@ -2216,42 +2216,42 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>《速度与激情7》</t>
+          <t>《哪吒之魔童闹海》</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2015</v>
+        <v>2025</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>动作/犯罪</t>
+          <t>动画/奇幻/动作</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15.15</v>
+        <v>21.4</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>唐老大团队为营救黑客与恐怖分子对决，布莱恩（保罗·沃克遗作）退隐</t>
+          <t>哪吒对抗天命与龙族，打破“魔童”诅咒的成长史诗，首部跻身全球前五的亚洲电影</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>动作</t>
+          <t>动画</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>《小丑》</t>
+          <t>《冰雪奇缘2》</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2259,20 +2259,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>剧情/犯罪/惊悚</t>
+          <t>动画/歌舞/奇幻</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>14.47</v>
+        <v>14.54</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>亚瑟·弗莱克在哥谭市压迫下沦为反派“小丑”</t>
+          <t>艾莎探寻魔法起源，与安娜拯救魔法森林</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>剧情</t>
+          <t>动画</t>
         </is>
       </c>
     </row>
@@ -2334,32 +2334,32 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>《小丑》</t>
+          <t>《头脑特工队2》</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>剧情/犯罪/惊悚</t>
+          <t>动画/喜剧/冒险</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14.47</v>
+        <v>16.99</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>亚瑟·弗莱克在哥谭市压迫下沦为反派“小丑”</t>
+          <t>莱莉进入青春期，情绪小人面临新挑战，创动画电影票房纪录</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>剧情</t>
+          <t>动画</t>
         </is>
       </c>
     </row>
